--- a/spreadsheet/likelihood_probability functions.xlsx
+++ b/spreadsheet/likelihood_probability functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aSSIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B59F4E-6FD5-4EE2-BE70-FBB168EFD2BB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D1ED5D-DC06-45FA-936B-B2E473E56A5C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12060" xr2:uid="{E3002601-2603-4A2A-951C-762E08BA618E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Fair coin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,12 +98,99 @@
     <t>L(P(H={0~1})/HHH)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>MLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동전을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회 던진 결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : HH</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동전을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">회 던진 결과 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>H, H, T</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +225,22 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,8 +271,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -188,13 +295,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,6 +374,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2227,16 +2395,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2264,15 +2432,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>34925</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>644525</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2295,6 +2463,67 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>91015</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4" descr="Maximum Likelihood Estimation - ppt video online download">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F5B994-ECC9-4018-A74D-B00ACA7EEBDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9182100" y="12065000"/>
+          <a:ext cx="5723465" cy="4292599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2597,21 +2826,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7893959D-3394-4AC6-8E10-7D44B9083C7A}">
-  <dimension ref="A3:H60"/>
+  <dimension ref="A3:I70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="4" width="17.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="1"/>
+    <col min="2" max="6" width="17.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="22.5" x14ac:dyDescent="0.45">
@@ -2788,7 +3015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D17" s="1">
         <f>D16+0.05</f>
         <v>0.05</v>
@@ -2802,7 +3029,10 @@
         <v>2.5000000000000005E-3</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" ht="21" x14ac:dyDescent="0.45">
+      <c r="B18" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="D18" s="1">
         <f t="shared" ref="D18:D32" si="3">D17+0.05</f>
         <v>0.1</v>
@@ -2816,7 +3046,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D19" s="1">
         <f t="shared" si="3"/>
         <v>0.15000000000000002</v>
@@ -2830,7 +3060,7 @@
         <v>2.2500000000000006E-2</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D20" s="1">
         <f t="shared" si="3"/>
         <v>0.2</v>
@@ -2844,7 +3074,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D21" s="1">
         <f t="shared" si="3"/>
         <v>0.25</v>
@@ -2858,7 +3088,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D22" s="1">
         <f t="shared" si="3"/>
         <v>0.3</v>
@@ -2872,7 +3102,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D23" s="1">
         <f t="shared" si="3"/>
         <v>0.35</v>
@@ -2886,7 +3116,7 @@
         <v>0.12249999999999998</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D24" s="1">
         <f t="shared" si="3"/>
         <v>0.39999999999999997</v>
@@ -2900,7 +3130,7 @@
         <v>0.15999999999999998</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D25" s="1">
         <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
@@ -2914,7 +3144,7 @@
         <v>0.20249999999999996</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D26" s="9">
         <f t="shared" si="3"/>
         <v>0.49999999999999994</v>
@@ -2931,7 +3161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D27" s="1">
         <f t="shared" si="3"/>
         <v>0.54999999999999993</v>
@@ -2945,7 +3175,7 @@
         <v>0.30249999999999994</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D28" s="1">
         <f t="shared" si="3"/>
         <v>0.6</v>
@@ -2959,7 +3189,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D29" s="1">
         <f t="shared" si="3"/>
         <v>0.65</v>
@@ -2973,7 +3203,7 @@
         <v>0.42250000000000004</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D30" s="1">
         <f t="shared" si="3"/>
         <v>0.70000000000000007</v>
@@ -2987,7 +3217,7 @@
         <v>0.4900000000000001</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D31" s="1">
         <f t="shared" si="3"/>
         <v>0.75000000000000011</v>
@@ -3001,7 +3231,7 @@
         <v>0.56250000000000022</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D32" s="1">
         <f t="shared" si="3"/>
         <v>0.80000000000000016</v>
@@ -3043,7 +3273,7 @@
         <v>0.81000000000000039</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D35" s="1">
         <f t="shared" si="6"/>
         <v>0.95000000000000029</v>
@@ -3057,21 +3287,25 @@
         <v>0.90250000000000052</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D36" s="1">
+    <row r="36" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C36" s="14"/>
+      <c r="D36" s="12">
         <f t="shared" si="6"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="13">
         <f t="shared" si="5"/>
         <v>1.0000000000000004</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="13" t="s">
         <v>13</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.45">
@@ -3128,7 +3362,10 @@
         <v>2.3750000000000004E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:8" ht="21" x14ac:dyDescent="0.45">
+      <c r="B42" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="E42" s="1">
         <f t="shared" ref="E42:E56" si="8">E41+0.05</f>
         <v>0.1</v>
@@ -3226,7 +3463,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E49" s="1">
         <f t="shared" si="8"/>
         <v>0.44999999999999996</v>
@@ -3240,7 +3477,7 @@
         <v>0.11137499999999999</v>
       </c>
     </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E50" s="1">
         <f t="shared" si="8"/>
         <v>0.49999999999999994</v>
@@ -3257,7 +3494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E51" s="1">
         <f t="shared" si="8"/>
         <v>0.54999999999999993</v>
@@ -3271,7 +3508,7 @@
         <v>0.136125</v>
       </c>
     </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="5:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E52" s="1">
         <f t="shared" si="8"/>
         <v>0.6</v>
@@ -3285,21 +3522,25 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E53" s="1">
+    <row r="53" spans="5:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E53" s="15">
         <f t="shared" si="8"/>
         <v>0.65</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="16">
         <f t="shared" si="9"/>
         <v>0.35</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="16">
         <f t="shared" si="7"/>
         <v>0.14787500000000001</v>
       </c>
-    </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="H53" s="16"/>
+      <c r="I53" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E54" s="1">
         <f t="shared" si="8"/>
         <v>0.70000000000000007</v>
@@ -3313,7 +3554,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E55" s="1">
         <f t="shared" si="8"/>
         <v>0.75000000000000011</v>
@@ -3327,7 +3568,7 @@
         <v>0.140625</v>
       </c>
     </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E56" s="1">
         <f t="shared" si="8"/>
         <v>0.80000000000000016</v>
@@ -3341,7 +3582,7 @@
         <v>0.12799999999999995</v>
       </c>
     </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E57" s="1">
         <f>E56+0.05</f>
         <v>0.8500000000000002</v>
@@ -3355,7 +3596,7 @@
         <v>0.10837499999999992</v>
       </c>
     </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E58" s="1">
         <f t="shared" ref="E58:E60" si="10">E57+0.05</f>
         <v>0.90000000000000024</v>
@@ -3369,7 +3610,7 @@
         <v>8.0999999999999836E-2</v>
       </c>
     </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E59" s="1">
         <f t="shared" si="10"/>
         <v>0.95000000000000029</v>
@@ -3383,7 +3624,7 @@
         <v>4.5124999999999763E-2</v>
       </c>
     </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="5:9" x14ac:dyDescent="0.45">
       <c r="E60" s="1">
         <f t="shared" si="10"/>
         <v>1.0000000000000002</v>
@@ -3399,6 +3640,9 @@
       <c r="H60" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
